--- a/biology/Zoologie/Isanichthys/Isanichthys.xlsx
+++ b/biology/Zoologie/Isanichthys/Isanichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isanichthys est un genre éteint de poissons osseux à nageoires rayonnées. Ces espèces étaient carnivores et vivaient le long des fleuves et lacs d'Europe et Asie du Jurassique supérieur (Kimméridgien) jusqu'au Crétacé inférieur.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Isanichthys a été créé en 2006 par Lionel Cavin (d) et Varavudh Suteethorn (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Isanichthys a été créé en 2006 par Lionel Cavin (d) et Varavudh Suteethorn (d),.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 † Isanichthys latifrons (Woodward, 1893)
 † Isanichthys lertboosi Deesri, Lauprasert, Suteethorn, Wongko, &amp; Cavin, 2014
 † Isanichthys luchowensis (Wang, 1974)
 [réf. nécessaire]
-† Isanichthys palustris Cavin &amp; Suteethorn, 2006[1] − espèce type</t>
+† Isanichthys palustris Cavin &amp; Suteethorn, 2006 − espèce type</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Isanichthys, combine l'Isan, la région du Nord-Est de la Thaïlande où ont été trouvés les restes fossiles, au grec ancien ἰχθύς, ikhthús, « poisson »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Isanichthys, combine l'Isan, la région du Nord-Est de la Thaïlande où ont été trouvés les restes fossiles, au grec ancien ἰχθύς, ikhthús, « poisson ».
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Lionel Cavin et Varavudh Suteethorn, « A New Semionotiform (Actinopterygii, Neopterygii) from Upper Jurassic - Lower Cretaceous Deposits of North-East Thailand, with Comments on the Relationships of Semionotiforms », Palaeontology, Londres, Wiley-Blackwell et Palaeontological Association (d), vol. 49, no 2,‎ mars 2006, p. 339-353 (ISSN 0031-0239 et 1475-4983, OCLC 44674714 et 1761779, DOI 10.1111/J.1475-4983.2006.00539.X, lire en ligne)</t>
         </is>
